--- a/biology/Zoologie/Chitinozoaire/Chitinozoaire.xlsx
+++ b/biology/Zoologie/Chitinozoaire/Chitinozoaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chitinozoa
 Les chitinozoaires (ou chitinozoa de chitine, du gr. kheitôn, tunique et zôon, animal) forment un groupe aujourd'hui disparu de microfossiles marins à paroi organique (palynomorphes) d'affinité biologique incertaine.
-Palynomorphes connus depuis l'Ordovicien inférieur jusqu'au Dévonien supérieur, en grand nombre dès l'Arénig,  disparaissent au Strunien. Leur taille va diminuant, de 500 μm à 120 à-50 à μm, ce qui en fait un bon outil stratigraphique. Les tests isolés ou vésicules ont une forme d'urne, de tube ou de bouteille et varient en taille d'approximativement 50 à 2000 micromètres. Le sommet des tests est fermé par un bouchon complexe ou par un operculum[1]. Les chitinozoaires sont soit isolés ou en agrégats, mais il est probable que tous étaient produits en groupes de tests interconnectés. Alfred Eisenack a nommé pour la première fois ces palynomorphes en 1931, le nom étant dérivé de la présumée composition chitineuse de leurs parois et de leur supposée affinité zoologique ; comptent plusieurs centaines d'espèces, et cinquante genres, ex : Conochitina.
+Palynomorphes connus depuis l'Ordovicien inférieur jusqu'au Dévonien supérieur, en grand nombre dès l'Arénig,  disparaissent au Strunien. Leur taille va diminuant, de 500 μm à 120 à-50 à μm, ce qui en fait un bon outil stratigraphique. Les tests isolés ou vésicules ont une forme d'urne, de tube ou de bouteille et varient en taille d'approximativement 50 à 2000 micromètres. Le sommet des tests est fermé par un bouchon complexe ou par un operculum. Les chitinozoaires sont soit isolés ou en agrégats, mais il est probable que tous étaient produits en groupes de tests interconnectés. Alfred Eisenack a nommé pour la première fois ces palynomorphes en 1931, le nom étant dérivé de la présumée composition chitineuse de leurs parois et de leur supposée affinité zoologique ; comptent plusieurs centaines d'espèces, et cinquante genres, ex : Conochitina.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>†Operculatifera
 †Prosomatifera</t>
